--- a/classification/droptc/sentence/modern-bert/unfreeze/99511865/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/unfreeze/99511865/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.997174859046936</v>
+        <v>0.9999676942825317</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9994822144508362</v>
+        <v>0.9999769926071167</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9993792772293091</v>
+        <v>0.9903507828712463</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9991135001182556</v>
+        <v>0.9989625215530396</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9988349080085754</v>
+        <v>0.9999796152114868</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9966236352920532</v>
+        <v>0.999980092048645</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9975595474243164</v>
+        <v>0.9999892711639404</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997842907905579</v>
+        <v>0.9999665021896362</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9945489764213562</v>
+        <v>0.9999892711639404</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9979429841041565</v>
+        <v>0.9998860359191895</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9986546039581299</v>
+        <v>0.9999866485595703</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9824362993240356</v>
+        <v>0.9990925788879395</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9975549578666687</v>
+        <v>0.9999889135360718</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.943597674369812</v>
+        <v>0.9999083280563354</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999703586101532</v>
+        <v>0.9999440908432007</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9997826218605042</v>
+        <v>0.9999232292175293</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9995114803314209</v>
+        <v>0.9710283279418945</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9997543692588806</v>
+        <v>0.9999933242797852</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997748732566833</v>
+        <v>0.9996269941329956</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.995195209980011</v>
+        <v>0.9999842643737793</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7907493114471436</v>
+        <v>0.9999723434448242</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9955655932426453</v>
+        <v>0.9999576807022095</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9974306225776672</v>
+        <v>0.9999054670333862</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9973816275596619</v>
+        <v>0.9551604986190796</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9966236352920532</v>
+        <v>0.9985532164573669</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9994844198226929</v>
+        <v>0.9999876022338867</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9995952248573303</v>
+        <v>0.9999769926071167</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9994434714317322</v>
+        <v>0.9999848604202271</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.99967360496521</v>
+        <v>0.9999213218688965</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9996033310890198</v>
+        <v>0.9999492168426514</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9996135830879211</v>
+        <v>0.9999750852584839</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9996341466903687</v>
+        <v>0.9999401569366455</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9974244832992554</v>
+        <v>0.9994218349456787</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9989091157913208</v>
+        <v>0.9999351501464844</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9775658845901489</v>
+        <v>0.9999841451644897</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9972278475761414</v>
+        <v>0.9999240636825562</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9994076490402222</v>
+        <v>0.9999940395355225</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.389068067073822</v>
+        <v>0.6546440124511719</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9996671676635742</v>
+        <v>0.4576314985752106</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9977520108222961</v>
+        <v>0.9999938011169434</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9992223978042603</v>
+        <v>0.8794865012168884</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9830906391143799</v>
+        <v>0.9998677968978882</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9847049713134766</v>
+        <v>0.9998377561569214</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9993622899055481</v>
+        <v>0.9999316930770874</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9988522529602051</v>
+        <v>0.9999057054519653</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9994968175888062</v>
+        <v>0.9995711445808411</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.926748514175415</v>
+        <v>0.9999191761016846</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9984779953956604</v>
+        <v>0.9999935626983643</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9916327595710754</v>
+        <v>0.9998117089271545</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9997050166130066</v>
+        <v>0.989689826965332</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9947531223297119</v>
+        <v>0.9998563528060913</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.685125470161438</v>
+        <v>0.9998117089271545</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9959498643875122</v>
+        <v>0.9997232556343079</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9996726512908936</v>
+        <v>0.999981164932251</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.999646782875061</v>
+        <v>0.9999945163726807</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9994801878929138</v>
+        <v>0.9999955892562866</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9978280663490295</v>
+        <v>0.9999165534973145</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9996261596679688</v>
+        <v>0.9999762773513794</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9993889331817627</v>
+        <v>0.9999892711639404</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9994961023330688</v>
+        <v>0.9999916553497314</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.463830828666687</v>
+        <v>0.9999595880508423</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9995729327201843</v>
+        <v>0.999930739402771</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9934585690498352</v>
+        <v>0.9076001644134521</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.288634717464447</v>
+        <v>0.9999464750289917</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9962460398674011</v>
+        <v>0.9999464750289917</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9841626882553101</v>
+        <v>0.9998881816864014</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9998400211334229</v>
+        <v>0.9999464750289917</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9988299012184143</v>
+        <v>0.9999350309371948</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9994938373565674</v>
+        <v>0.9999885559082031</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9996813535690308</v>
+        <v>0.5198677182197571</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9955393671989441</v>
+        <v>0.9999699592590332</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9955655932426453</v>
+        <v>0.9999428987503052</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5638784170150757</v>
+        <v>0.9965433478355408</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9962460398674011</v>
+        <v>0.9999862909317017</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9994961023330688</v>
+        <v>0.9999428987503052</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9994961023330688</v>
+        <v>0.9999209642410278</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9996485710144043</v>
+        <v>0.9999428987503052</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9886537194252014</v>
+        <v>0.9999897480010986</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9198179244995117</v>
+        <v>0.999943733215332</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9944888353347778</v>
+        <v>0.9991764426231384</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9829440712928772</v>
+        <v>0.9999350309371948</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9996066689491272</v>
+        <v>0.9999831914901733</v>
       </c>
     </row>
     <row r="84">
@@ -2779,14 +2779,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4658974707126617</v>
+        <v>0.9999831914901733</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9962460398674011</v>
+        <v>0.9999909400939941</v>
       </c>
     </row>
     <row r="86">
@@ -2835,14 +2835,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9982607960700989</v>
+        <v>0.9999568462371826</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9984779953956604</v>
+        <v>0.9998168349266052</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9981706142425537</v>
+        <v>0.999895453453064</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9997498393058777</v>
+        <v>0.999933123588562</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9997692704200745</v>
+        <v>0.9999936819076538</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9979752898216248</v>
+        <v>0.9999938011169434</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9886537194252014</v>
+        <v>0.9999930858612061</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9994811415672302</v>
+        <v>0.9999934434890747</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9979085922241211</v>
+        <v>0.9999935626983643</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.999281108379364</v>
+        <v>0.9999930858612061</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9996293783187866</v>
+        <v>0.9999597072601318</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9940072298049927</v>
+        <v>0.999610960483551</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9994961023330688</v>
+        <v>0.9999946355819702</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8002867102622986</v>
+        <v>0.9999438524246216</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.977923572063446</v>
+        <v>0.9999850988388062</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.999545156955719</v>
+        <v>0.9999901056289673</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9994365572929382</v>
+        <v>0.9976244568824768</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9994961023330688</v>
+        <v>0.9996902942657471</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9996960163116455</v>
+        <v>0.9999849796295166</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9995057582855225</v>
+        <v>0.9999569654464722</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.444282591342926</v>
+        <v>0.9999922513961792</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.997418999671936</v>
+        <v>0.9920067191123962</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9988904595375061</v>
+        <v>0.9998418092727661</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9990153312683105</v>
+        <v>0.9999897480010986</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9279229640960693</v>
+        <v>0.9999769926071167</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9801663756370544</v>
+        <v>0.9999158382415771</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9981439113616943</v>
+        <v>0.9999238252639771</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9989851117134094</v>
+        <v>0.9998795986175537</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9995883107185364</v>
+        <v>0.9999877214431763</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9946145415306091</v>
+        <v>0.9999525547027588</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9707111120223999</v>
+        <v>0.9721537828445435</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9945494532585144</v>
+        <v>0.9981330037117004</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9998113512992859</v>
+        <v>0.821894109249115</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9994895458221436</v>
+        <v>0.9237086176872253</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9997521042823792</v>
+        <v>0.9999769926071167</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9715735912322998</v>
+        <v>0.9999018907546997</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.997998058795929</v>
+        <v>0.9999791383743286</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9994912147521973</v>
+        <v>0.9999018907546997</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.999565064907074</v>
+        <v>0.9999791383743286</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9998466968536377</v>
+        <v>0.9999018907546997</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9996938705444336</v>
+        <v>0.9999947547912598</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9997312426567078</v>
+        <v>0.9991720914840698</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9967370629310608</v>
+        <v>0.9999769926071167</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.999758780002594</v>
+        <v>0.9786310195922852</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9997451901435852</v>
+        <v>0.8706471920013428</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9996323585510254</v>
+        <v>0.999982476234436</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6728944182395935</v>
+        <v>0.9983038902282715</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9998179078102112</v>
+        <v>0.9999796152114868</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9994434714317322</v>
+        <v>0.9998390674591064</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9997736811637878</v>
+        <v>0.9999803304672241</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9994483590126038</v>
+        <v>0.999983549118042</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9995114803314209</v>
+        <v>0.9999861717224121</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9868988990783691</v>
+        <v>0.9999874830245972</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9989606142044067</v>
+        <v>0.9999895095825195</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9980959296226501</v>
+        <v>0.9999829530715942</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9995562434196472</v>
+        <v>0.6422855854034424</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9994869232177734</v>
+        <v>0.9999769926071167</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9987813830375671</v>
+        <v>0.9998784065246582</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.995375394821167</v>
+        <v>0.999991774559021</v>
       </c>
     </row>
     <row r="145">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9766409993171692</v>
+        <v>0.9998784065246582</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.7378698587417603</v>
+        <v>0.9999756813049316</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9996519088745117</v>
+        <v>0.9999350309371948</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9988055229187012</v>
+        <v>0.9999896287918091</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9990610480308533</v>
+        <v>0.999931812286377</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9993323683738708</v>
+        <v>0.9952020645141602</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9992259740829468</v>
+        <v>0.9999769926071167</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9944888353347778</v>
+        <v>0.9999752044677734</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9996970891952515</v>
+        <v>0.9999324083328247</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9996652603149414</v>
+        <v>0.9999011754989624</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9552907943725586</v>
+        <v>0.999991774559021</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9978483915328979</v>
+        <v>0.9998910427093506</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9998183846473694</v>
+        <v>0.9999926090240479</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9989259839057922</v>
+        <v>0.9998179078102112</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9995481371879578</v>
+        <v>0.9999926090240479</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9988717436790466</v>
+        <v>0.9996999502182007</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9997583031654358</v>
+        <v>0.9999903440475464</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9988688826560974</v>
+        <v>0.9990435242652893</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9994961023330688</v>
+        <v>0.9999815225601196</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9996340274810791</v>
+        <v>0.9998607635498047</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9955655932426453</v>
+        <v>0.9999889135360718</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9829440712928772</v>
+        <v>0.9999758005142212</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9997460246086121</v>
+        <v>0.9998396635055542</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9944888353347778</v>
+        <v>0.7999727129936218</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9998102784156799</v>
+        <v>0.9999769926071167</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9837990999221802</v>
+        <v>0.9998396635055542</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9998237490653992</v>
+        <v>0.9997294545173645</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9775658845901489</v>
+        <v>0.9999769926071167</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9996077418327332</v>
+        <v>0.9999849796295166</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.4704725742340088</v>
+        <v>0.9999839067459106</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9985284805297852</v>
+        <v>0.9999849796295166</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9941387176513672</v>
+        <v>0.999988317489624</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.997035026550293</v>
+        <v>0.9999839067459106</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9926664233207703</v>
+        <v>0.9999858140945435</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9930887818336487</v>
+        <v>0.9999803304672241</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9997139573097229</v>
+        <v>0.9999743700027466</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9997434020042419</v>
+        <v>0.9999700784683228</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9871475100517273</v>
+        <v>0.999976634979248</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9691357016563416</v>
+        <v>0.9999154806137085</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9916812777519226</v>
+        <v>0.9999773502349854</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9991045594215393</v>
+        <v>0.9999936819076538</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9811739921569824</v>
+        <v>0.9999946355819702</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9979752898216248</v>
+        <v>0.9999930858612061</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9994961023330688</v>
+        <v>0.9999899864196777</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.996889054775238</v>
+        <v>0.9999929666519165</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9996135830879211</v>
+        <v>0.9999926090240479</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9841368198394775</v>
+        <v>0.6159122586250305</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.999305248260498</v>
+        <v>0.9999877214431763</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9982576966285706</v>
+        <v>0.9999805688858032</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9992244243621826</v>
+        <v>0.9998706579208374</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9992478489875793</v>
+        <v>0.9988147020339966</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9997813105583191</v>
+        <v>0.9999929666519165</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9994961023330688</v>
+        <v>0.9999932050704956</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9981830716133118</v>
+        <v>0.9999910593032837</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.960126519203186</v>
+        <v>0.9999897480010986</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9995928406715393</v>
+        <v>0.9981852173805237</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9994955062866211</v>
+        <v>0.9999916553497314</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9969146251678467</v>
+        <v>0.9999908208847046</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9998339414596558</v>
+        <v>0.9999599456787109</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9994961023330688</v>
+        <v>0.9998630285263062</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9989225268363953</v>
+        <v>0.9999700784683228</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9995939135551453</v>
+        <v>0.9999825954437256</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9976688027381897</v>
+        <v>0.9995244741439819</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9994829893112183</v>
+        <v>0.9999287128448486</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9991140961647034</v>
+        <v>0.9605288505554199</v>
       </c>
     </row>
     <row r="210">
@@ -6307,14 +6307,14 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.6343087553977966</v>
+        <v>0.9999830722808838</v>
       </c>
     </row>
   </sheetData>
